--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58701.73321374615</v>
+        <v>11681644.90953547</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58701.73321374615</v>
+        <v>11681644.90953547</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.7293166692646</v>
+        <v>15028.73097956662</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.7293166692646</v>
+        <v>15028.73097956662</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959473801.0198011</v>
+        <v>39803199.97047378</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8438.546345527935</v>
+        <v>950903.6951283833</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15820.53101480272</v>
+        <v>1737408.356397989</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23202.51568407751</v>
+        <v>2523913.017667597</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30616.78223214016</v>
+        <v>3313108.396846293</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38020.35787111192</v>
+        <v>4100176.285115899</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45423.93351008368</v>
+        <v>4887244.173385504</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52827.50914905543</v>
+        <v>5674312.061655106</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60231.08478802718</v>
+        <v>6461379.949924708</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67636.34331333519</v>
+        <v>7248632.43285985</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75040.88911137046</v>
+        <v>8035743.083067719</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82445.43490940573</v>
+        <v>8822853.733275592</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89817.15321541575</v>
+        <v>9607405.541014688</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97199.56243051669</v>
+        <v>10394084.83966287</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>104581.9716456176</v>
+        <v>11180764.13831106</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>111964.3808607185</v>
+        <v>11967443.43695925</v>
       </c>
     </row>
   </sheetData>
